--- a/workspace/Plans.xlsx
+++ b/workspace/Plans.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
-    <sheet name="Thesis" sheetId="4" r:id="rId2"/>
-    <sheet name="Publications" sheetId="3" r:id="rId3"/>
+    <sheet name="Course List" sheetId="5" r:id="rId2"/>
+    <sheet name="Thesis" sheetId="4" r:id="rId3"/>
+    <sheet name="Publications" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="191">
   <si>
     <t>Fall 2016</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Systems Engineering Colloquium</t>
   </si>
   <si>
-    <t>Graduate Teaching Instruction</t>
-  </si>
-  <si>
     <t>Elective</t>
   </si>
   <si>
@@ -64,9 +62,6 @@
   </si>
   <si>
     <t>Thesis</t>
-  </si>
-  <si>
-    <t>Supervised Project Research</t>
   </si>
   <si>
     <t>Summer 2017</t>
@@ -219,9 +214,6 @@
     <t>System Electives</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -283,13 +275,397 @@
   </si>
   <si>
     <t>More Information</t>
+  </si>
+  <si>
+    <t>SYS 6001</t>
+  </si>
+  <si>
+    <t>SYS 6002</t>
+  </si>
+  <si>
+    <t>Systems Integration</t>
+  </si>
+  <si>
+    <t>SYS 6003</t>
+  </si>
+  <si>
+    <t>SYS 6005</t>
+  </si>
+  <si>
+    <t>Stochastic Systems I</t>
+  </si>
+  <si>
+    <t>Optimization I</t>
+  </si>
+  <si>
+    <t>SYS 6009</t>
+  </si>
+  <si>
+    <t>The Art and Science of Systems Modeling</t>
+  </si>
+  <si>
+    <t>SYS 6012</t>
+  </si>
+  <si>
+    <t>Dynamic Systems</t>
+  </si>
+  <si>
+    <t>SYS 6013</t>
+  </si>
+  <si>
+    <t>Applied Multivariate Statistics</t>
+  </si>
+  <si>
+    <t>SYS 6014</t>
+  </si>
+  <si>
+    <t>Decision Analysis</t>
+  </si>
+  <si>
+    <t>SYS 6016</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>SYS 6018</t>
+  </si>
+  <si>
+    <t>Data Mining</t>
+  </si>
+  <si>
+    <t>SYS 6021</t>
+  </si>
+  <si>
+    <t>Linear Statistical Models</t>
+  </si>
+  <si>
+    <t>SYS 6023</t>
+  </si>
+  <si>
+    <t>Cognitive Systems Engineering</t>
+  </si>
+  <si>
+    <t>SYS 6026</t>
+  </si>
+  <si>
+    <t>Quantitative Models of Human Perceptual Information Processing</t>
+  </si>
+  <si>
+    <t>SYS 6034</t>
+  </si>
+  <si>
+    <t>Discrete-Event Stochastic Simulation</t>
+  </si>
+  <si>
+    <t>SYS 6035</t>
+  </si>
+  <si>
+    <t>Agent-Based Modeling and Simulation of Complex Systems</t>
+  </si>
+  <si>
+    <t>SYS 6042</t>
+  </si>
+  <si>
+    <t>Network and Combinatorial Optimization</t>
+  </si>
+  <si>
+    <t>SYS 6043</t>
+  </si>
+  <si>
+    <t>Applied Optimization</t>
+  </si>
+  <si>
+    <t>SYS 6044</t>
+  </si>
+  <si>
+    <t>Engineering Economic Systems</t>
+  </si>
+  <si>
+    <t>SYS 6045</t>
+  </si>
+  <si>
+    <t>Applied Probabilistic Models</t>
+  </si>
+  <si>
+    <t>SYS 6050</t>
+  </si>
+  <si>
+    <t>Risk Analysis</t>
+  </si>
+  <si>
+    <t>SYS 6054</t>
+  </si>
+  <si>
+    <t>Financial Engineering</t>
+  </si>
+  <si>
+    <t>SYS 6064</t>
+  </si>
+  <si>
+    <t>Applied Human Factors Engineering</t>
+  </si>
+  <si>
+    <t>SYS 6070</t>
+  </si>
+  <si>
+    <t>Environmental Systems Processes</t>
+  </si>
+  <si>
+    <t>SYS 7001</t>
+  </si>
+  <si>
+    <t>System and Decision Sciences</t>
+  </si>
+  <si>
+    <t>SYS 7002</t>
+  </si>
+  <si>
+    <t>Case Studies in Systems Engineering</t>
+  </si>
+  <si>
+    <t>SYS 7005</t>
+  </si>
+  <si>
+    <t>Stochastic Systems II</t>
+  </si>
+  <si>
+    <t>SYS 7016</t>
+  </si>
+  <si>
+    <t>Artifical Intelligence</t>
+  </si>
+  <si>
+    <t>SYS 7021</t>
+  </si>
+  <si>
+    <t>Research Methods in Systems Engineering</t>
+  </si>
+  <si>
+    <t>SYS 7027</t>
+  </si>
+  <si>
+    <t>Quantitative Models of Human Judgement and Decision-making</t>
+  </si>
+  <si>
+    <t>SYS 7030</t>
+  </si>
+  <si>
+    <t>Time Series Analysis and Forecasting</t>
+  </si>
+  <si>
+    <t>SYS 7034</t>
+  </si>
+  <si>
+    <t>Advanced System Simulation</t>
+  </si>
+  <si>
+    <t>SYS 7042</t>
+  </si>
+  <si>
+    <t>Heuristic Search</t>
+  </si>
+  <si>
+    <t>SYS 7050</t>
+  </si>
+  <si>
+    <t>SYS 7052</t>
+  </si>
+  <si>
+    <t>Sequential Decision Processes</t>
+  </si>
+  <si>
+    <t>SYS 7054</t>
+  </si>
+  <si>
+    <t>Multiobjective Optimization</t>
+  </si>
+  <si>
+    <t>SYS 7063</t>
+  </si>
+  <si>
+    <t>Simulation Optimization</t>
+  </si>
+  <si>
+    <t>SYS 7070</t>
+  </si>
+  <si>
+    <t>Sequencing and Scheduling</t>
+  </si>
+  <si>
+    <t>SYS 7075</t>
+  </si>
+  <si>
+    <t>Bayesian Forecast-Decision Theory</t>
+  </si>
+  <si>
+    <t>SYS 6074</t>
+  </si>
+  <si>
+    <t>Total Quality Engineering</t>
+  </si>
+  <si>
+    <t>SYS 8995</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>S(15,14,13)</t>
+  </si>
+  <si>
+    <t>S(16,15)</t>
+  </si>
+  <si>
+    <t>F(15,13)</t>
+  </si>
+  <si>
+    <t>S(12)</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>F, S</t>
+  </si>
+  <si>
+    <t>S(13,12,11)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>S(16,15,14)</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>F(13,12,11)</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>F16,S16,S15</t>
+  </si>
+  <si>
+    <t>S(12,10)</t>
+  </si>
+  <si>
+    <t>F(12,10,9)</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>S12,F09</t>
+  </si>
+  <si>
+    <t>F(15,14,11)</t>
+  </si>
+  <si>
+    <t>GRA</t>
+  </si>
+  <si>
+    <t>SYS 8997</t>
+  </si>
+  <si>
+    <t>GTA</t>
+  </si>
+  <si>
+    <t>F16,F15,S15,S14</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>SYS 7097</t>
+  </si>
+  <si>
+    <t>Topics in Systems Engineering</t>
+  </si>
+  <si>
+    <t>F12,S10</t>
+  </si>
+  <si>
+    <t>SYS 7581</t>
+  </si>
+  <si>
+    <t>Advanced Topics in Systems Engineering</t>
+  </si>
+  <si>
+    <t>F14,S14,S13</t>
+  </si>
+  <si>
+    <t>SYS 7582</t>
+  </si>
+  <si>
+    <t>Advanced Topics In Systems Engineering</t>
+  </si>
+  <si>
+    <t>S16,S15,S14</t>
+  </si>
+  <si>
+    <t>SYS 7993</t>
+  </si>
+  <si>
+    <t>SYS 6582</t>
+  </si>
+  <si>
+    <t>Selected Topics In Systems Engineering</t>
+  </si>
+  <si>
+    <t>SYS 6581</t>
+  </si>
+  <si>
+    <t>SYS 6993</t>
+  </si>
+  <si>
+    <t>From Handbook</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Seems too simple</t>
+  </si>
+  <si>
+    <t>Would I rather take NLP?</t>
+  </si>
+  <si>
+    <t>Related to interests but not directly</t>
+  </si>
+  <si>
+    <t>Important but not what I'm interested in</t>
+  </si>
+  <si>
+    <t>Probably can just pick up</t>
+  </si>
+  <si>
+    <t>Only consider if I take 6050</t>
+  </si>
+  <si>
+    <t>Too theoretical? Maybe only consider after 6005?</t>
+  </si>
+  <si>
+    <t>Y/M/N</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>DY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +719,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,26 +761,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -450,6 +954,46 @@
     <tableColumn id="5" name="Deg Crd" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Spring_2018" displayName="Spring_2018" ref="A34:E39" totalsRowCount="1">
+  <autoFilter ref="A34:E38"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Department" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Number"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Reg Crd" totalsRowFunction="sum"/>
+    <tableColumn id="5" name="Deg Crd" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F51" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:F51">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Code" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" name="Semester" dataDxfId="3"/>
+    <tableColumn id="4" name="Comments"/>
+    <tableColumn id="5" name="Required" dataDxfId="1"/>
+    <tableColumn id="6" name="Y/M/N" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -740,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,9 +1307,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -784,16 +1325,16 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -816,13 +1357,13 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -845,13 +1386,13 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -874,13 +1415,13 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -891,22 +1432,25 @@
         <v>8997</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -925,22 +1469,22 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f>SUBTOTAL(109,Fall_2016[Reg Crd])</f>
@@ -950,17 +1494,17 @@
         <f>SUBTOTAL(109,Fall_2016[Deg Crd])</f>
         <v>10</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>38</v>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -968,30 +1512,30 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1011,10 +1555,11 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <v>32</v>
+        <f>SUM(Fall_2016[Deg Crd], Spring_2017[Deg Crd], Summer_2017[Deg Crd], Fall_2017[Deg Crd], Spring_2018[Deg Crd])</f>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>4</v>
@@ -1022,13 +1567,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1039,13 +1584,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1056,13 +1601,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1079,10 +1624,13 @@
         <v>8997</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="D15">
         <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1104,7 +1652,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <f>SUBTOTAL(109,Spring_2017[Reg Crd])</f>
@@ -1114,19 +1662,15 @@
         <f>SUBTOTAL(109,Spring_2017[Deg Crd])</f>
         <v>10</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J18" s="3"/>
-    </row>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1144,7 +1688,6 @@
       <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1154,12 +1697,14 @@
         <v>8995</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="E21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1169,7 +1714,7 @@
         <v>8999</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1180,7 +1725,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <f>SUBTOTAL(109,Summer_2017[Reg Crd])</f>
@@ -1193,7 +1738,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1215,13 +1760,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1232,13 +1777,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1255,7 +1800,7 @@
         <v>8995</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1269,7 +1814,7 @@
         <v>8999</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1277,13 +1822,13 @@
       <c r="E30">
         <v>3</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>46</v>
+      <c r="K30" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <f>SUBTOTAL(109,Fall_2017[Reg Crd])</f>
@@ -1293,7 +1838,110 @@
         <f>SUBTOTAL(109,Fall_2017[Deg Crd])</f>
         <v>9</v>
       </c>
-      <c r="K31" s="4"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>8995</v>
+      </c>
+      <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>8999</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <f>SUBTOTAL(109,Spring_2018[Reg Crd])</f>
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <f>SUBTOTAL(109,Spring_2018[Deg Crd])</f>
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1304,16 +1952,884 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="10" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D50" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I19"/>
   <sheetViews>
@@ -1328,14 +2844,14 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1343,56 +2859,56 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1405,7 +2921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I20"/>
   <sheetViews>
@@ -1420,14 +2936,14 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1435,67 +2951,67 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/workspace/Plans.xlsx
+++ b/workspace/Plans.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
     <sheet name="Course List" sheetId="5" r:id="rId2"/>
-    <sheet name="Thesis" sheetId="4" r:id="rId3"/>
-    <sheet name="Publications" sheetId="3" r:id="rId4"/>
+    <sheet name="Alternative Courses" sheetId="6" r:id="rId3"/>
+    <sheet name="Thesis" sheetId="4" r:id="rId4"/>
+    <sheet name="Publications" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="206">
   <si>
     <t>Fall 2016</t>
   </si>
@@ -658,7 +659,52 @@
     <t>MN</t>
   </si>
   <si>
+    <t>MY</t>
+  </si>
+  <si>
     <t>DY</t>
+  </si>
+  <si>
+    <t>SOC 5120</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>PLAP</t>
+  </si>
+  <si>
+    <t>PPOL 5025</t>
+  </si>
+  <si>
+    <t>PPOL 7005</t>
+  </si>
+  <si>
+    <t>USING Ubiquitous Computing to manipulate and optimize an individual's choices, goals or personality</t>
+  </si>
+  <si>
+    <t>USING Ubiquitous Computing to manipulate and optimize a larger social ssystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studying the effect of ubiquitous computing on individual </t>
+  </si>
+  <si>
+    <t>What effects do ubiquitous computers have on an individual's system of behaviors?</t>
+  </si>
+  <si>
+    <t>What effects do ubiquitous computers have on a communities system of behaviors?</t>
+  </si>
+  <si>
+    <t>Can we model the impact of new kinds of ubiquitous computing by measuring their characteristics?</t>
+  </si>
+  <si>
+    <t>PSYC 7700</t>
+  </si>
+  <si>
+    <t>PSYC 7710</t>
+  </si>
+  <si>
+    <t>PSYC 8730</t>
   </si>
 </sst>
 </file>
@@ -984,6 +1030,12 @@
         <filter val="FALSE"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="DY"/>
+        <filter val="MY"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="Code" dataDxfId="5"/>
@@ -1966,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,7 +2068,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>64</v>
       </c>
@@ -2069,7 +2121,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
@@ -2103,7 +2155,9 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2148,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2169,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>82</v>
       </c>
@@ -2189,7 +2243,9 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -2257,7 +2313,9 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2385,7 +2443,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>177</v>
       </c>
@@ -2404,7 +2462,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>175</v>
       </c>
@@ -2423,7 +2481,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>178</v>
       </c>
@@ -2459,7 +2517,7 @@
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>110</v>
       </c>
@@ -2478,7 +2536,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>112</v>
       </c>
@@ -2509,7 +2567,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>116</v>
       </c>
@@ -2577,7 +2635,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>126</v>
       </c>
@@ -2625,7 +2683,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>131</v>
       </c>
@@ -2688,7 +2746,7 @@
       </c>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>165</v>
       </c>
@@ -2707,7 +2765,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>168</v>
       </c>
@@ -2726,7 +2784,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>171</v>
       </c>
@@ -2745,7 +2803,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>174</v>
       </c>
@@ -2831,6 +2889,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2921,7 +3058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I20"/>
   <sheetViews>

--- a/workspace/Plans.xlsx
+++ b/workspace/Plans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="209">
   <si>
     <t>Fall 2016</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Choose paper 1 topic</t>
   </si>
   <si>
-    <t>Choose paper 1 journal</t>
-  </si>
-  <si>
     <t>Submit paper 1</t>
   </si>
   <si>
@@ -705,6 +702,18 @@
   </si>
   <si>
     <t>PSYC 8730</t>
+  </si>
+  <si>
+    <t>Moved these here from Summer 2017 because conferences require early applications</t>
+  </si>
+  <si>
+    <t>Choose paper 1 conference</t>
+  </si>
+  <si>
+    <t>Present paper 1</t>
+  </si>
+  <si>
+    <t>Revise paper 1</t>
   </si>
 </sst>
 </file>
@@ -807,7 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -815,17 +824,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1018,7 +1028,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F51" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F51" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:F51">
     <filterColumn colId="2">
       <customFilters>
@@ -1038,9 +1048,9 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="Code" dataDxfId="5"/>
-    <tableColumn id="2" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" name="Semester" dataDxfId="3"/>
+    <tableColumn id="1" name="Code" dataDxfId="4"/>
+    <tableColumn id="2" name="Description" dataDxfId="3"/>
+    <tableColumn id="3" name="Semester" dataDxfId="2"/>
     <tableColumn id="4" name="Comments"/>
     <tableColumn id="5" name="Required" dataDxfId="1"/>
     <tableColumn id="6" name="Y/M/N" dataDxfId="0"/>
@@ -1338,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1494,7 @@
         <v>8997</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1521,16 +1531,16 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1546,16 +1556,16 @@
         <f>SUBTOTAL(109,Fall_2016[Deg Crd])</f>
         <v>10</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1676,7 +1686,7 @@
         <v>8997</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1749,7 +1759,7 @@
         <v>8995</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1852,7 +1862,7 @@
         <v>8995</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1874,7 +1884,7 @@
       <c r="E30">
         <v>3</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1890,11 +1900,11 @@
         <f>SUBTOTAL(109,Fall_2017[Deg Crd])</f>
         <v>9</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1956,7 +1966,7 @@
         <v>8995</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2033,847 +2043,847 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="b">
+      <c r="C2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="b">
+      <c r="B4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="b">
+      <c r="C5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="b">
+      <c r="B7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="b">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="F10" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="b">
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="F11" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="10" t="b">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="10" t="b">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
         <v>92</v>
       </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="10" t="b">
+      <c r="C19" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="10" t="b">
+      <c r="B22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
         <v>104</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="10" t="b">
+      <c r="C24" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
         <v>137</v>
       </c>
-      <c r="B25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="b">
+      <c r="B28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="b">
+      <c r="F28" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="b">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="F30" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10" t="b">
+      <c r="D31" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>189</v>
+      <c r="F31" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
         <v>114</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="B34" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="10" t="b">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
         <v>120</v>
       </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
         <v>122</v>
       </c>
-      <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
         <v>124</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="B38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="10" t="b">
+      <c r="B39" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
         <v>129</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="b">
+      <c r="C41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>189</v>
+      <c r="F41" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
         <v>133</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="b">
+      <c r="C43" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="b">
+      <c r="C44" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="b">
+      <c r="B46" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="F46" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="b">
+      <c r="B47" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="F47" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10" t="b">
+      <c r="B48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>189</v>
+      <c r="F48" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10" t="b">
+      <c r="A49" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="10" t="b">
+      <c r="C50" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="8" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10" t="b">
+      <c r="C51" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2891,7 +2901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2899,66 +2909,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2980,23 +2990,23 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3011,7 +3021,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3021,7 +3031,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3031,17 +3041,17 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3060,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,23 +3082,23 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3098,57 +3108,73 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
